--- a/Ressources/CRA_E3_DANEL.xlsx
+++ b/Ressources/CRA_E3_DANEL.xlsx
@@ -120,7 +120,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -134,7 +134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>CRA</a:t>
+              <a:t>Compte Rendu d'Activité</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -153,7 +153,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -181,252 +181,90 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -459,12 +297,12 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -523,7 +361,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -542,17 +380,17 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E6B-43C8-8BBB-F9613982A4B0}"/>
+              <c16:uniqueId val="{00000000-8BB0-4653-B547-5C16D91CE28C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -676,7 +514,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -687,7 +525,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -700,7 +538,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -717,7 +555,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -777,35 +615,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -817,10 +669,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -829,17 +681,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -881,22 +732,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -943,8 +795,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -995,8 +853,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1034,20 +892,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1060,17 +918,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1102,7 +949,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1111,13 +958,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1138,19 +986,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1171,8 +1020,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1181,20 +1036,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1478,7 +1333,7 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1395,7 @@
       </c>
       <c r="B10">
         <f>B3+B4+B5+B6+B8+B7</f>
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
